--- a/biology/Médecine/Hôtel-Dieu_de_Sorel/Hôtel-Dieu_de_Sorel.xlsx
+++ b/biology/Médecine/Hôtel-Dieu_de_Sorel/Hôtel-Dieu_de_Sorel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4tel-Dieu_de_Sorel</t>
+          <t>Hôtel-Dieu_de_Sorel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hôtel-Dieu de Sorel est un hôpital situé à Sorel-Tracy.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4tel-Dieu_de_Sorel</t>
+          <t>Hôtel-Dieu_de_Sorel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier hôpital de Sorel est ouvert en 1862 par les Sœurs de la charité de Saint-Hyacinthe, aux coins des rues George et De Ramezay. Il est démoli et reconstruit dans les années 1940 en raison de l'augmentation de la population.
-L'Hôtel-Dieu de Sorel est érigé selon les plans de l'architecte Ernest Cormier sous l'impulsion de Pierre-Joseph-Arthur Cardin, député de Richelieu—Verchères. La pierre angulaire est posée en 1946. La direction est initialement confiée aux Religieuses Hospitalières de Saint-Joseph[1].
-La Fondation Hôtel-Dieu de Sorel est constituée par lettres patentes le 14 mai 1984[2]. L'urgence est agrandie en 2009[3].
+L'Hôtel-Dieu de Sorel est érigé selon les plans de l'architecte Ernest Cormier sous l'impulsion de Pierre-Joseph-Arthur Cardin, député de Richelieu—Verchères. La pierre angulaire est posée en 1946. La direction est initialement confiée aux Religieuses Hospitalières de Saint-Joseph.
+La Fondation Hôtel-Dieu de Sorel est constituée par lettres patentes le 14 mai 1984. L'urgence est agrandie en 2009.
 </t>
         </is>
       </c>
